--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_SRL.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_SRL.xlsx
@@ -475,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -599,10 +599,10 @@
         <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -620,10 +620,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -738,7 +738,7 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
@@ -875,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -915,7 +915,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
         <v>25</v>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1031,7 +1031,7 @@
         <v>102</v>
       </c>
       <c r="D30" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E30" t="n">
         <v>78</v>
@@ -1052,10 +1052,10 @@
         <v>56</v>
       </c>
       <c r="D31" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
@@ -1149,10 +1149,10 @@
         <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -1211,7 +1211,7 @@
         <v>107</v>
       </c>
       <c r="E39" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40">
@@ -1290,10 +1290,10 @@
         <v>15</v>
       </c>
       <c r="D43" t="n">
+        <v>18</v>
+      </c>
+      <c r="E43" t="n">
         <v>17</v>
-      </c>
-      <c r="E43" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -1353,10 +1353,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">

--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_SRL.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_SRL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_formats_raw" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="all_formats_raw" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/active_players/all_formats/ActivePlayers_SRL.xlsx
+++ b/bin/sheets/main_db/active_players/all_formats/ActivePlayers_SRL.xlsx
@@ -478,7 +478,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -602,7 +602,7 @@
         <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -623,7 +623,7 @@
         <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -918,7 +918,7 @@
         <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1055,7 +1055,7 @@
         <v>95</v>
       </c>
       <c r="E31" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -1152,7 +1152,7 @@
         <v>23</v>
       </c>
       <c r="E36" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
@@ -1211,7 +1211,7 @@
         <v>107</v>
       </c>
       <c r="E39" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1293,7 +1293,7 @@
         <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -1356,7 +1356,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
